--- a/output/GTA_ArtDiver_combined_result_opmaak_new.xlsx
+++ b/output/GTA_ArtDiver_combined_result_opmaak_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srv57d1\geo_info\02_Werkplaatsen\06_HYD\Projecten\HKC21009 Pilot ArtDiver tbv beheer grondwatermeetreeksen FEWS-BRO\02. Projectgegevens\GMW_processing\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38002479-C7E9-4D91-9542-3B6D1542ACF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F73B04-B20A-4C25-8A67-8D107AFDC839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="119">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>Verkeerd in ArtDiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klopt de </t>
   </si>
 </sst>
 </file>
@@ -553,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -567,6 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -906,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T84"/>
+  <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +924,7 @@
     <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="10.42578125" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" customWidth="1"/>
-    <col min="13" max="13" width="30.42578125" style="17" customWidth="1"/>
+    <col min="13" max="13" width="30.42578125" style="18" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -963,7 +967,7 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -1028,7 +1032,7 @@
       <c r="L2" s="3">
         <v>1</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="17" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -1077,7 +1081,7 @@
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="18" t="s">
         <v>22</v>
       </c>
       <c r="R3" s="1">
@@ -1106,7 +1110,7 @@
       <c r="F4" s="8">
         <v>-1.044</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="14">
         <v>44074.529861111107</v>
       </c>
       <c r="H4" s="8"/>
@@ -1120,7 +1124,7 @@
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="18" t="s">
         <v>22</v>
       </c>
       <c r="R4" s="1">
@@ -1167,7 +1171,7 @@
       <c r="L5" s="3">
         <v>2</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="N5" s="3" t="s">
@@ -1195,7 +1199,7 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="18" t="s">
         <v>24</v>
       </c>
       <c r="T6" t="s">
@@ -1239,7 +1243,7 @@
       <c r="L7" s="3">
         <v>2</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="17" t="s">
         <v>26</v>
       </c>
       <c r="N7" s="3" t="s">
@@ -1288,7 +1292,7 @@
       <c r="L8" s="6">
         <v>1</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="18" t="s">
         <v>26</v>
       </c>
       <c r="R8" s="1">
@@ -1317,7 +1321,7 @@
       <c r="F9" s="8">
         <v>-0.95400000000000007</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="14">
         <v>44074.539583333331</v>
       </c>
       <c r="J9" s="8">
@@ -1329,7 +1333,7 @@
       <c r="L9" s="6">
         <v>1</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="18" t="s">
         <v>26</v>
       </c>
       <c r="R9" s="1">
@@ -1376,7 +1380,7 @@
       <c r="L10" s="3">
         <v>1</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="17" t="s">
         <v>30</v>
       </c>
       <c r="N10" s="3" t="s">
@@ -1425,7 +1429,7 @@
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="18" t="s">
         <v>30</v>
       </c>
       <c r="R11" s="1">
@@ -1451,13 +1455,13 @@
       <c r="E12">
         <v>528341.07200000004</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="8">
         <v>-1.258</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="14">
         <v>44074.575694444437</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="8">
         <v>2E-3</v>
       </c>
       <c r="K12">
@@ -1466,7 +1470,7 @@
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="M12" s="18" t="s">
         <v>30</v>
       </c>
       <c r="R12" s="1">
@@ -1513,7 +1517,7 @@
       <c r="L13" s="3">
         <v>1</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="17" t="s">
         <v>32</v>
       </c>
       <c r="N13" s="3" t="s">
@@ -1541,7 +1545,7 @@
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="M14" s="18" t="s">
         <v>32</v>
       </c>
       <c r="T14" t="s">
@@ -1585,7 +1589,7 @@
       <c r="L15" s="3">
         <v>2</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="M15" s="17" t="s">
         <v>34</v>
       </c>
       <c r="N15" s="3" t="s">
@@ -1634,7 +1638,7 @@
       <c r="L16" s="7">
         <v>1</v>
       </c>
-      <c r="M16" s="17" t="s">
+      <c r="M16" s="18" t="s">
         <v>34</v>
       </c>
       <c r="R16" s="1">
@@ -1660,22 +1664,22 @@
       <c r="E17">
         <v>528341.06799999997</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="8">
         <v>-1.1779999999999999</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="14">
         <v>44074.592361111107</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="8">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="5">
         <v>25.02</v>
       </c>
       <c r="L17" s="7">
         <v>1</v>
       </c>
-      <c r="M17" s="17" t="s">
+      <c r="M17" s="18" t="s">
         <v>34</v>
       </c>
       <c r="R17" s="1">
@@ -1722,7 +1726,7 @@
       <c r="L18" s="3">
         <v>1</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="M18" s="17" t="s">
         <v>38</v>
       </c>
       <c r="N18" s="3" t="s">
@@ -1771,7 +1775,7 @@
       <c r="L19">
         <v>1</v>
       </c>
-      <c r="M19" s="17" t="s">
+      <c r="M19" s="18" t="s">
         <v>38</v>
       </c>
       <c r="R19" s="1">
@@ -1818,7 +1822,7 @@
       <c r="L20" s="3">
         <v>1</v>
       </c>
-      <c r="M20" s="16" t="s">
+      <c r="M20" s="17" t="s">
         <v>40</v>
       </c>
       <c r="N20" s="3" t="s">
@@ -1846,7 +1850,7 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="M21" s="17" t="s">
+      <c r="M21" s="18" t="s">
         <v>40</v>
       </c>
       <c r="T21" t="s">
@@ -1890,7 +1894,7 @@
       <c r="L22" s="3">
         <v>2</v>
       </c>
-      <c r="M22" s="16" t="s">
+      <c r="M22" s="17" t="s">
         <v>42</v>
       </c>
       <c r="N22" s="3" t="s">
@@ -1939,7 +1943,7 @@
       <c r="L23" s="7">
         <v>1</v>
       </c>
-      <c r="M23" s="17" t="s">
+      <c r="M23" s="18" t="s">
         <v>42</v>
       </c>
       <c r="R23" s="1">
@@ -1980,7 +1984,7 @@
       <c r="L24" s="7">
         <v>1</v>
       </c>
-      <c r="M24" s="17" t="s">
+      <c r="M24" s="18" t="s">
         <v>42</v>
       </c>
       <c r="R24" s="1">
@@ -2027,7 +2031,7 @@
       <c r="L25" s="3">
         <v>2</v>
       </c>
-      <c r="M25" s="16" t="s">
+      <c r="M25" s="17" t="s">
         <v>47</v>
       </c>
       <c r="N25" s="3" t="s">
@@ -2076,7 +2080,7 @@
       <c r="L26" s="6">
         <v>1</v>
       </c>
-      <c r="M26" s="17" t="s">
+      <c r="M26" s="18" t="s">
         <v>47</v>
       </c>
       <c r="R26" s="1">
@@ -2123,7 +2127,7 @@
       <c r="L27" s="3">
         <v>2</v>
       </c>
-      <c r="M27" s="16" t="s">
+      <c r="M27" s="17" t="s">
         <v>50</v>
       </c>
       <c r="N27" s="3" t="s">
@@ -2151,7 +2155,7 @@
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="M28" s="17" t="s">
+      <c r="M28" s="18" t="s">
         <v>50</v>
       </c>
       <c r="T28" t="s">
@@ -2195,7 +2199,7 @@
       <c r="L29" s="3">
         <v>1.5</v>
       </c>
-      <c r="M29" s="16" t="s">
+      <c r="M29" s="17" t="s">
         <v>54</v>
       </c>
       <c r="N29" s="3" t="s">
@@ -2244,7 +2248,7 @@
       <c r="L30" s="6">
         <v>1</v>
       </c>
-      <c r="M30" s="17" t="s">
+      <c r="M30" s="18" t="s">
         <v>54</v>
       </c>
       <c r="R30" s="1">
@@ -2254,79 +2258,79 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
+    <row r="31" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="12">
         <v>100</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="12">
         <v>104741</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="12">
         <v>528280</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="12">
         <v>10.24</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="13">
         <v>43473.291666666657</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="12">
         <v>11.34</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="12">
         <v>33.299999999999997</v>
       </c>
-      <c r="L31" s="11">
-        <v>1</v>
-      </c>
-      <c r="M31" s="18" t="s">
+      <c r="L31" s="12">
+        <v>1</v>
+      </c>
+      <c r="M31" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="R31" s="12">
+      <c r="R31" s="13">
         <v>43473.291666666657</v>
       </c>
-      <c r="T31" s="11" t="s">
+      <c r="T31" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
+    <row r="32" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="12">
         <v>350</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="12">
         <v>104741</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="12">
         <v>528280</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="12">
         <v>10.24</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="13">
         <v>43473.291666666657</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="12">
         <v>11.34</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="12">
         <v>33.299999999999997</v>
       </c>
-      <c r="L32" s="11">
-        <v>1</v>
-      </c>
-      <c r="M32" s="18" t="s">
+      <c r="L32" s="12">
+        <v>1</v>
+      </c>
+      <c r="M32" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="R32" s="12">
+      <c r="R32" s="13">
         <v>43473.291666666657</v>
       </c>
-      <c r="T32" s="11" t="s">
+      <c r="T32" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2367,7 +2371,7 @@
       <c r="L33" s="3">
         <v>2</v>
       </c>
-      <c r="M33" s="16" t="s">
+      <c r="M33" s="17" t="s">
         <v>63</v>
       </c>
       <c r="N33" s="3" t="s">
@@ -2401,13 +2405,13 @@
       <c r="E34">
         <v>528274.72100000002</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="15">
         <v>7.35</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="14">
         <v>43468.291666666657</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="15">
         <v>7.75</v>
       </c>
       <c r="K34">
@@ -2416,7 +2420,7 @@
       <c r="L34" s="6">
         <v>1</v>
       </c>
-      <c r="M34" s="17" t="s">
+      <c r="M34" s="18" t="s">
         <v>63</v>
       </c>
       <c r="R34" s="1">
@@ -2442,13 +2446,13 @@
       <c r="E35">
         <v>528274.72100000002</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="15">
         <v>7.84</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="14">
         <v>43468.291666666657</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="15">
         <v>7.35</v>
       </c>
       <c r="K35">
@@ -2457,7 +2461,7 @@
       <c r="L35" s="6">
         <v>1</v>
       </c>
-      <c r="M35" s="17" t="s">
+      <c r="M35" s="18" t="s">
         <v>63</v>
       </c>
       <c r="R35" s="1">
@@ -2498,7 +2502,7 @@
       <c r="L36" s="6">
         <v>1</v>
       </c>
-      <c r="M36" s="17" t="s">
+      <c r="M36" s="18" t="s">
         <v>63</v>
       </c>
       <c r="R36" s="1">
@@ -2539,7 +2543,7 @@
       <c r="L37" s="6">
         <v>1</v>
       </c>
-      <c r="M37" s="17" t="s">
+      <c r="M37" s="18" t="s">
         <v>63</v>
       </c>
       <c r="R37" s="1">
@@ -2580,7 +2584,7 @@
       <c r="L38" s="6">
         <v>1</v>
       </c>
-      <c r="M38" s="17" t="s">
+      <c r="M38" s="18" t="s">
         <v>63</v>
       </c>
       <c r="R38" s="1">
@@ -2621,7 +2625,7 @@
       <c r="L39" s="6">
         <v>1</v>
       </c>
-      <c r="M39" s="17" t="s">
+      <c r="M39" s="18" t="s">
         <v>63</v>
       </c>
       <c r="R39" s="1">
@@ -2668,7 +2672,7 @@
       <c r="L40" s="3">
         <v>2</v>
       </c>
-      <c r="M40" s="16" t="s">
+      <c r="M40" s="17" t="s">
         <v>66</v>
       </c>
       <c r="N40" s="3" t="s">
@@ -2696,7 +2700,7 @@
       <c r="C41">
         <v>2</v>
       </c>
-      <c r="M41" s="17" t="s">
+      <c r="M41" s="18" t="s">
         <v>66</v>
       </c>
       <c r="T41" t="s">
@@ -2740,7 +2744,7 @@
       <c r="L42" s="3">
         <v>1</v>
       </c>
-      <c r="M42" s="16" t="s">
+      <c r="M42" s="17" t="s">
         <v>69</v>
       </c>
       <c r="N42" s="3" t="s">
@@ -2789,7 +2793,7 @@
       <c r="L43">
         <v>1</v>
       </c>
-      <c r="M43" s="17" t="s">
+      <c r="M43" s="18" t="s">
         <v>69</v>
       </c>
       <c r="R43" s="1">
@@ -2818,7 +2822,7 @@
       <c r="F44" s="8">
         <v>7.351</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="14">
         <v>43501.465277777781</v>
       </c>
       <c r="J44" s="8">
@@ -2830,7 +2834,7 @@
       <c r="L44">
         <v>1</v>
       </c>
-      <c r="M44" s="17" t="s">
+      <c r="M44" s="18" t="s">
         <v>69</v>
       </c>
       <c r="R44" s="1">
@@ -2871,7 +2875,7 @@
       <c r="L45">
         <v>1</v>
       </c>
-      <c r="M45" s="17" t="s">
+      <c r="M45" s="18" t="s">
         <v>69</v>
       </c>
       <c r="R45" s="1">
@@ -2912,7 +2916,7 @@
       <c r="L46">
         <v>1</v>
       </c>
-      <c r="M46" s="17" t="s">
+      <c r="M46" s="18" t="s">
         <v>69</v>
       </c>
       <c r="R46" s="1">
@@ -2953,7 +2957,7 @@
       <c r="L47">
         <v>1</v>
       </c>
-      <c r="M47" s="17" t="s">
+      <c r="M47" s="18" t="s">
         <v>69</v>
       </c>
       <c r="R47" s="1">
@@ -2970,7 +2974,7 @@
       <c r="C48">
         <v>3</v>
       </c>
-      <c r="M48" s="17" t="s">
+      <c r="M48" s="18" t="s">
         <v>69</v>
       </c>
       <c r="T48" t="s">
@@ -3014,7 +3018,7 @@
       <c r="L49" s="3">
         <v>1</v>
       </c>
-      <c r="M49" s="16" t="s">
+      <c r="M49" s="17" t="s">
         <v>74</v>
       </c>
       <c r="N49" s="3" t="s">
@@ -3063,7 +3067,7 @@
       <c r="L50">
         <v>0.99999999999999978</v>
       </c>
-      <c r="M50" s="17" t="s">
+      <c r="M50" s="18" t="s">
         <v>74</v>
       </c>
       <c r="R50" s="1">
@@ -3110,7 +3114,7 @@
       <c r="L51" s="3">
         <v>1</v>
       </c>
-      <c r="M51" s="16" t="s">
+      <c r="M51" s="17" t="s">
         <v>76</v>
       </c>
       <c r="N51" s="3" t="s">
@@ -3138,7 +3142,7 @@
       <c r="C52">
         <v>2</v>
       </c>
-      <c r="M52" s="17" t="s">
+      <c r="M52" s="18" t="s">
         <v>76</v>
       </c>
       <c r="T52" t="s">
@@ -3182,7 +3186,7 @@
       <c r="L53" s="3">
         <v>1</v>
       </c>
-      <c r="M53" s="16" t="s">
+      <c r="M53" s="17" t="s">
         <v>78</v>
       </c>
       <c r="N53" s="3" t="s">
@@ -3231,7 +3235,7 @@
       <c r="L54">
         <v>1</v>
       </c>
-      <c r="M54" s="17" t="s">
+      <c r="M54" s="18" t="s">
         <v>78</v>
       </c>
       <c r="R54" s="1">
@@ -3272,7 +3276,7 @@
       <c r="L55">
         <v>1</v>
       </c>
-      <c r="M55" s="17" t="s">
+      <c r="M55" s="18" t="s">
         <v>78</v>
       </c>
       <c r="R55" s="1">
@@ -3319,7 +3323,7 @@
       <c r="L56" s="3">
         <v>2</v>
       </c>
-      <c r="M56" s="16" t="s">
+      <c r="M56" s="17" t="s">
         <v>82</v>
       </c>
       <c r="N56" s="3" t="s">
@@ -3368,7 +3372,7 @@
       <c r="L57" s="6">
         <v>1</v>
       </c>
-      <c r="M57" s="17" t="s">
+      <c r="M57" s="18" t="s">
         <v>82</v>
       </c>
       <c r="R57" s="1">
@@ -3415,7 +3419,7 @@
       <c r="L58" s="3">
         <v>2</v>
       </c>
-      <c r="M58" s="16" t="s">
+      <c r="M58" s="17" t="s">
         <v>84</v>
       </c>
       <c r="N58" s="3" t="s">
@@ -3443,7 +3447,7 @@
       <c r="C59">
         <v>2</v>
       </c>
-      <c r="M59" s="17" t="s">
+      <c r="M59" s="18" t="s">
         <v>84</v>
       </c>
       <c r="T59" t="s">
@@ -3487,7 +3491,7 @@
       <c r="L60" s="3">
         <v>2</v>
       </c>
-      <c r="M60" s="16" t="s">
+      <c r="M60" s="17" t="s">
         <v>86</v>
       </c>
       <c r="N60" s="3" t="s">
@@ -3536,7 +3540,7 @@
       <c r="L61" s="6">
         <v>1</v>
       </c>
-      <c r="M61" s="17" t="s">
+      <c r="M61" s="18" t="s">
         <v>86</v>
       </c>
       <c r="R61" s="1">
@@ -3577,7 +3581,7 @@
       <c r="L62" s="6">
         <v>1</v>
       </c>
-      <c r="M62" s="17" t="s">
+      <c r="M62" s="18" t="s">
         <v>86</v>
       </c>
       <c r="R62" s="1">
@@ -3624,7 +3628,7 @@
       <c r="L63" s="3">
         <v>2</v>
       </c>
-      <c r="M63" s="16" t="s">
+      <c r="M63" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N63" s="3" t="s">
@@ -3673,7 +3677,7 @@
       <c r="L64" s="6">
         <v>1</v>
       </c>
-      <c r="M64" s="17" t="s">
+      <c r="M64" s="18" t="s">
         <v>90</v>
       </c>
       <c r="R64" s="1">
@@ -3720,7 +3724,7 @@
       <c r="L65" s="3">
         <v>2</v>
       </c>
-      <c r="M65" s="16" t="s">
+      <c r="M65" s="17" t="s">
         <v>93</v>
       </c>
       <c r="N65" s="3" t="s">
@@ -3748,7 +3752,7 @@
       <c r="C66">
         <v>2</v>
       </c>
-      <c r="M66" s="17" t="s">
+      <c r="M66" s="18" t="s">
         <v>93</v>
       </c>
       <c r="T66" t="s">
@@ -3792,7 +3796,7 @@
       <c r="L67" s="3">
         <v>1</v>
       </c>
-      <c r="M67" s="16" t="s">
+      <c r="M67" s="17" t="s">
         <v>96</v>
       </c>
       <c r="N67" s="3" t="s">
@@ -3841,7 +3845,7 @@
       <c r="L68">
         <v>1</v>
       </c>
-      <c r="M68" s="17" t="s">
+      <c r="M68" s="18" t="s">
         <v>96</v>
       </c>
       <c r="R68" s="1">
@@ -3870,7 +3874,7 @@
       <c r="F69">
         <v>1.96</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G69" s="14">
         <v>43474.434027777781</v>
       </c>
       <c r="J69">
@@ -3882,7 +3886,7 @@
       <c r="L69">
         <v>1</v>
       </c>
-      <c r="M69" s="17" t="s">
+      <c r="M69" s="18" t="s">
         <v>96</v>
       </c>
       <c r="R69" s="1">
@@ -3911,7 +3915,7 @@
       <c r="F70">
         <v>1.96</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G70" s="14">
         <v>44074.37222222222</v>
       </c>
       <c r="J70">
@@ -3923,7 +3927,7 @@
       <c r="L70">
         <v>1</v>
       </c>
-      <c r="M70" s="17" t="s">
+      <c r="M70" s="18" t="s">
         <v>96</v>
       </c>
       <c r="R70" s="1">
@@ -3961,7 +3965,7 @@
       <c r="L71" s="9">
         <v>1</v>
       </c>
-      <c r="M71" s="19" t="s">
+      <c r="M71" s="20" t="s">
         <v>101</v>
       </c>
       <c r="R71" s="10">
@@ -3999,7 +4003,7 @@
       <c r="L72" s="9">
         <v>1</v>
       </c>
-      <c r="M72" s="19" t="s">
+      <c r="M72" s="20" t="s">
         <v>103</v>
       </c>
       <c r="R72" s="10">
@@ -4046,7 +4050,7 @@
       <c r="L73" s="3">
         <v>2</v>
       </c>
-      <c r="M73" s="16" t="s">
+      <c r="M73" s="17" t="s">
         <v>105</v>
       </c>
       <c r="N73" s="3" t="s">
@@ -4074,7 +4078,7 @@
       <c r="C74">
         <v>1</v>
       </c>
-      <c r="M74" s="17" t="s">
+      <c r="M74" s="18" t="s">
         <v>105</v>
       </c>
       <c r="T74" t="s">
@@ -4118,7 +4122,7 @@
       <c r="L75" s="3">
         <v>1</v>
       </c>
-      <c r="M75" s="16" t="s">
+      <c r="M75" s="17" t="s">
         <v>108</v>
       </c>
       <c r="N75" s="3" t="s">
@@ -4152,13 +4156,13 @@
       <c r="E76">
         <v>530028.40700000001</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="5">
         <v>0.996</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G76" s="11">
         <v>43390.291666666657</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="5">
         <v>2.496</v>
       </c>
       <c r="K76">
@@ -4167,7 +4171,7 @@
       <c r="L76">
         <v>1</v>
       </c>
-      <c r="M76" s="17" t="s">
+      <c r="M76" s="18" t="s">
         <v>108</v>
       </c>
       <c r="R76" s="1">
@@ -4196,7 +4200,7 @@
       <c r="F77">
         <v>0.996</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G77" s="14">
         <v>44074.318055555559</v>
       </c>
       <c r="J77">
@@ -4208,7 +4212,7 @@
       <c r="L77">
         <v>1.0000000000000011</v>
       </c>
-      <c r="M77" s="17" t="s">
+      <c r="M77" s="18" t="s">
         <v>108</v>
       </c>
       <c r="R77" s="1">
@@ -4255,7 +4259,7 @@
       <c r="L78" s="3">
         <v>1</v>
       </c>
-      <c r="M78" s="16" t="s">
+      <c r="M78" s="17" t="s">
         <v>111</v>
       </c>
       <c r="N78" s="3" t="s">
@@ -4283,7 +4287,7 @@
       <c r="C79">
         <v>3</v>
       </c>
-      <c r="M79" s="17" t="s">
+      <c r="M79" s="18" t="s">
         <v>111</v>
       </c>
       <c r="T79" t="s">
@@ -4297,16 +4301,21 @@
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F83" s="14" t="s">
+      <c r="F83" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="G83" s="14"/>
+      <c r="G83" s="15"/>
     </row>
     <row r="84" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F84" s="6" t="s">
         <v>117</v>
       </c>
       <c r="G84" s="6"/>
+    </row>
+    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:T79" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
